--- a/xls/templates/investment-driven-template.xlsx
+++ b/xls/templates/investment-driven-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toddcullen/Projects/remarkably/xls/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dave/dev/psl/remarkably/xls/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FCF22D4-ECA6-4544-932D-614CFD0DE903}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE952B95-FA85-FB4A-AE0F-486D6B7D7E0B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="38400" windowHeight="21060" activeTab="4" xr2:uid="{37D2F886-AD7C-B54B-8546-6E8B72F70745}"/>
+    <workbookView xWindow="68880" yWindow="15260" windowWidth="28640" windowHeight="17380" activeTab="7" xr2:uid="{37D2F886-AD7C-B54B-8546-6E8B72F70745}"/>
   </bookViews>
   <sheets>
     <sheet name="CONSTANTS" sheetId="12" r:id="rId1"/>
@@ -166,9 +166,6 @@
   </si>
   <si>
     <t>EXE 4 Week</t>
-  </si>
-  <si>
-    <t>Acquistion Demand Creation</t>
   </si>
   <si>
     <t>Acquisition Leasing Enablement</t>
@@ -660,9 +657,6 @@
     <t>Ret Setup Cost</t>
   </si>
   <si>
-    <t>deadline_model</t>
-  </si>
-  <si>
     <t>Acq DC</t>
   </si>
   <si>
@@ -685,6 +679,12 @@
   </si>
   <si>
     <t>Ret RB</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>Acquisition Demand Creation</t>
   </si>
 </sst>
 </file>
@@ -1144,6 +1144,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="19"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="11" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1215,9 +1218,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1566,48 +1566,48 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="67" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="C1" s="67" t="s">
         <v>190</v>
-      </c>
-      <c r="C1" s="67" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1630,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1">
         <v>12</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2">
         <f>B1-2</f>
@@ -1679,7 +1679,7 @@
       <c r="A1" s="28"/>
       <c r="B1" s="28"/>
       <c r="C1" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
@@ -1690,24 +1690,24 @@
       <c r="J1" s="30"/>
       <c r="K1" s="30"/>
       <c r="L1" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M1" s="32"/>
       <c r="N1" s="32"/>
       <c r="O1" s="32"/>
       <c r="P1" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q1" s="34"/>
       <c r="R1" s="34"/>
       <c r="S1" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T1" s="36"/>
       <c r="U1" s="36"/>
       <c r="V1" s="36"/>
       <c r="W1" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X1" s="38"/>
       <c r="Y1" s="38"/>
@@ -1721,37 +1721,37 @@
         <v>1</v>
       </c>
       <c r="C2" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="E2" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="F2" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="G2" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="H2" s="41" t="s">
         <v>117</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>118</v>
       </c>
       <c r="I2" s="41" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="L2" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="M2" s="41" t="s">
         <v>121</v>
-      </c>
-      <c r="M2" s="41" t="s">
-        <v>122</v>
       </c>
       <c r="N2" s="41" t="s">
         <v>16</v>
@@ -1760,37 +1760,37 @@
         <v>17</v>
       </c>
       <c r="P2" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q2" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="41" t="s">
-        <v>88</v>
-      </c>
       <c r="R2" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="S2" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="T2" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="T2" s="43" t="s">
+      <c r="U2" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="U2" s="43" t="s">
+      <c r="V2" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="V2" s="43" t="s">
+      <c r="W2" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="W2" s="42" t="s">
+      <c r="X2" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="X2" s="43" t="s">
+      <c r="Y2" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="Y2" s="43" t="s">
+      <c r="Z2" s="43" t="s">
         <v>130</v>
-      </c>
-      <c r="Z2" s="43" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
@@ -18538,72 +18538,72 @@
       <c r="A1" s="47"/>
       <c r="B1" s="47"/>
       <c r="C1" s="51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D1" s="51"/>
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
       <c r="G1" s="51"/>
       <c r="H1" s="45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
       <c r="K1" s="45"/>
-      <c r="L1" s="70" t="s">
-        <v>153</v>
-      </c>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
+      <c r="L1" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
     </row>
     <row r="2" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="C2" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="46" t="s">
+      <c r="F2" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="G2" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="46" t="s">
-        <v>138</v>
-      </c>
       <c r="H2" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I2" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="K2" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="46" t="s">
-        <v>70</v>
-      </c>
       <c r="L2" s="56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M2" s="56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N2" s="46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
       <c r="A3" s="49"/>
       <c r="B3" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="49">
         <f>SUM(C5:C221)</f>
@@ -18657,7 +18657,7 @@
     <row r="4" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
       <c r="A4" s="49"/>
       <c r="B4" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" s="49">
         <f ca="1">AVERAGE(C5:INDIRECT("C"&amp;4+META!$B$2))</f>
@@ -18680,16 +18680,16 @@
         <v>0</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J4" s="55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K4" s="55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L4" s="59">
         <f>AVERAGE(L5:L221)</f>
@@ -18700,10 +18700,10 @@
         <v>0</v>
       </c>
       <c r="N4" s="61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="XFD4" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
@@ -31447,62 +31447,62 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="71" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="72" t="s">
-        <v>140</v>
-      </c>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73" t="s">
+        <v>139</v>
+      </c>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="F2" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="K2" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="L2" s="53" t="s">
         <v>72</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="J2" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="K2" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="L2" s="53" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="5">
         <f ca="1">C3+H3</f>
@@ -31551,7 +31551,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4">
         <f ca="1">COUNT(BASELINE!$A$3:INDIRECT("BASELINE!A"&amp;META!$B$1))</f>
@@ -31600,7 +31600,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" s="5">
         <f ca="1">B3/B4</f>
@@ -31660,7 +31660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CCBE0F-D375-A742-B703-BEAC0C115090}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -31679,48 +31679,48 @@
   <sheetData>
     <row r="1" spans="1:9" s="66" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="66" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="66" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="C1" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="D1" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="D1" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="E1" s="66" t="s">
-        <v>191</v>
-      </c>
       <c r="F1" s="69" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="H1" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="I1" s="66" t="s">
         <v>204</v>
-      </c>
-      <c r="I1" s="66" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D2" s="68">
         <v>1000</v>
       </c>
       <c r="E2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F2" s="5">
         <f>IF(C2="Acquisition", IF(E2="Monthly", (D2*12)/52, IF(E2="Weekly", D2, 0)), 0)</f>
@@ -33622,10 +33622,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="73"/>
+      <c r="A1" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="74"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -33637,7 +33637,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="14">
         <f ca="1">INDIRECT("BASELINE!M"&amp;META!B1)</f>
@@ -33646,7 +33646,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="14">
         <v>253</v>
@@ -33654,7 +33654,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="65">
         <v>0.9</v>
@@ -33662,7 +33662,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="14">
         <v>250</v>
@@ -33670,14 +33670,14 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="64" t="e">
         <f ca="1">ROW(INDEX(MODEL!O4:O43,MATCH(TRUE,INDEX(MODEL!O4:O43&gt;B5,0),)))</f>
         <v>#N/A</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -33689,24 +33689,24 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="73" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
+      <c r="A10" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
     </row>
     <row r="11" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" s="7">
         <f>FUNNEL!H3</f>
@@ -33719,7 +33719,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="7">
         <f>FUNNEL!I3</f>
@@ -33732,7 +33732,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" s="7">
         <f>FUNNEL!J3</f>
@@ -33745,7 +33745,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" s="7">
         <f>FUNNEL!K3</f>
@@ -33758,7 +33758,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="7">
         <f>FUNNEL!N3</f>
@@ -33773,24 +33773,24 @@
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
+      <c r="A18" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
     </row>
     <row r="19" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20">
         <f ca="1">FUNNEL!C4</f>
@@ -33803,7 +33803,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B21">
         <f ca="1">AVERAGE(INDIRECT("BASELINE!O3:O"&amp;META!B1))</f>
@@ -33819,14 +33819,14 @@
       <c r="B22" s="12"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="76" t="s">
-        <v>152</v>
-      </c>
-      <c r="B23" s="76"/>
+      <c r="A23" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" s="77"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B24" s="15">
         <f ca="1">COUNT(INDIRECT("MODEL!A4:A"&amp;B7))</f>
@@ -33834,32 +33834,32 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="74" t="s">
-        <v>201</v>
-      </c>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
+      <c r="A26" s="75" t="s">
+        <v>200</v>
+      </c>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
     </row>
     <row r="27" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="E27" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5">
         <f>SUMIF(TACTICS!B2:B104, $B$27, TACTICS!F2:F104)</f>
@@ -33880,7 +33880,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B29" s="5">
         <f>SUMIF(TACTICS!$B$2:$B$104, B$27, TACTICS!$G$2:$G$104)</f>
@@ -33901,7 +33901,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B30" s="5">
         <f>SUMIF(TACTICS!B2:B104, $B$27, TACTICS!H2:H104)</f>
@@ -33922,7 +33922,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B31" s="5">
         <f>SUMIF(TACTICS!$B$2:$B$104, B$27, TACTICS!$I$2:$I$104)</f>
@@ -33987,118 +33987,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
+      <c r="A1" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
     </row>
     <row r="2" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>88</v>
-      </c>
       <c r="D2" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>104</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>105</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="P2" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="R2" s="11" t="s">
         <v>20</v>
       </c>
       <c r="S2" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="T2" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="V2" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="W2" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="X2" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="Y2" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Z2" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="Z2" s="11" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N3" s="1">
         <f>INPUTS!B4</f>
@@ -37688,8 +37688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCFA04E-CEAE-1D4C-9348-08755944D418}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37701,12 +37701,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="83"/>
+      <c r="A1" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="84"/>
       <c r="D1" s="49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E1" s="49"/>
     </row>
@@ -37714,7 +37714,7 @@
       <c r="A2" s="8"/>
       <c r="B2" s="17"/>
       <c r="D2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E2" s="2" t="e">
         <f ca="1">INPUTS!B7</f>
@@ -37722,12 +37722,12 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="84" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="85"/>
+      <c r="A3" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="86"/>
       <c r="D3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E3" s="2" t="e">
         <f ca="1">E2-3</f>
@@ -37736,16 +37736,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" t="s">
         <v>169</v>
-      </c>
-      <c r="E4" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -37756,10 +37756,10 @@
         <v>43542</v>
       </c>
       <c r="D5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" t="s">
         <v>171</v>
-      </c>
-      <c r="E5" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -37771,10 +37771,10 @@
         <v>#N/A</v>
       </c>
       <c r="D6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" t="s">
         <v>173</v>
-      </c>
-      <c r="E6" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -37786,10 +37786,10 @@
         <v>#N/A</v>
       </c>
       <c r="D7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" t="s">
         <v>175</v>
-      </c>
-      <c r="E7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -37801,32 +37801,32 @@
         <v>1000</v>
       </c>
       <c r="D8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" t="s">
         <v>177</v>
-      </c>
-      <c r="E8" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="21"/>
-      <c r="D9" s="94" t="s">
-        <v>207</v>
+      <c r="D9" s="70" t="s">
+        <v>205</v>
       </c>
       <c r="E9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="88"/>
+      <c r="D10" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="86" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="87"/>
-      <c r="D10" s="94" t="s">
-        <v>208</v>
-      </c>
-      <c r="E10" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -37837,11 +37837,11 @@
         <f ca="1">INDIRECT("MODEL!N"&amp;E2)-MODEL!N3</f>
         <v>#N/A</v>
       </c>
-      <c r="D11" s="94" t="s">
-        <v>209</v>
+      <c r="D11" s="70" t="s">
+        <v>207</v>
       </c>
       <c r="E11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -37852,11 +37852,11 @@
         <f ca="1">SUM(INDIRECT("MODEL!F4:F"&amp;E2))</f>
         <v>#N/A</v>
       </c>
-      <c r="D12" s="94" t="s">
-        <v>210</v>
+      <c r="D12" s="70" t="s">
+        <v>208</v>
       </c>
       <c r="E12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -37867,11 +37867,11 @@
         <f ca="1">B12/B42</f>
         <v>#N/A</v>
       </c>
-      <c r="D13" s="94" t="s">
-        <v>211</v>
+      <c r="D13" s="70" t="s">
+        <v>209</v>
       </c>
       <c r="E13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -37882,11 +37882,11 @@
         <f ca="1">SUM(INDIRECT("MODEL!K4:K"&amp;E2))</f>
         <v>#N/A</v>
       </c>
-      <c r="D14" s="94" t="s">
-        <v>212</v>
+      <c r="D14" s="70" t="s">
+        <v>210</v>
       </c>
       <c r="E14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -37897,11 +37897,11 @@
         <f ca="1">SUM(INDIRECT("MODEL!L4:L"&amp;E2))</f>
         <v>#N/A</v>
       </c>
-      <c r="D15" s="94" t="s">
-        <v>213</v>
+      <c r="D15" s="70" t="s">
+        <v>211</v>
       </c>
       <c r="E15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -37912,11 +37912,11 @@
         <f ca="1">B15/B17</f>
         <v>#N/A</v>
       </c>
-      <c r="D16" s="94" t="s">
-        <v>214</v>
+      <c r="D16" s="70" t="s">
+        <v>212</v>
       </c>
       <c r="E16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -37960,10 +37960,10 @@
       <c r="B21" s="17"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="88" t="s">
+      <c r="A22" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="89"/>
+      <c r="B22" s="90"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -38015,10 +38015,10 @@
       <c r="B28" s="17"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="90" t="s">
+      <c r="A29" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="91"/>
+      <c r="B29" s="92"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
@@ -38205,14 +38205,14 @@
       <c r="B50" s="17"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="92" t="s">
-        <v>74</v>
-      </c>
-      <c r="B51" s="93"/>
+      <c r="A51" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="94"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="B52" s="24" t="e">
         <f ca="1">SUM(INDIRECT("MODEL!"&amp;E9&amp;"4:"&amp;E9&amp;$E$2))+INPUTS!C30</f>
@@ -38221,7 +38221,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B53" s="24" t="e">
         <f ca="1">SUM(INDIRECT("MODEL!"&amp;E10&amp;"4:"&amp;E10&amp;$E$2))+INPUTS!D30</f>
@@ -38230,7 +38230,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B54" s="24" t="e">
         <f ca="1">SUM(INDIRECT("MODEL!"&amp;E11&amp;"4:"&amp;E11&amp;$E$2))+INPUTS!E30</f>
@@ -38239,7 +38239,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B55" s="24" t="e">
         <f ca="1">SUM(INDIRECT("MODEL!"&amp;E12&amp;"4:"&amp;E12&amp;$E$2))+INPUTS!B30</f>
@@ -38248,7 +38248,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B56" s="24" t="e">
         <f ca="1">SUM(B52:B55)</f>
@@ -38257,7 +38257,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B57" s="17" t="e">
         <f ca="1">ROUND(B58/B56,0)</f>
@@ -38266,7 +38266,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B58" s="24" t="e">
         <f ca="1">B23*(B8*12)</f>
@@ -38278,14 +38278,14 @@
       <c r="B59" s="24"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="78" t="s">
-        <v>75</v>
-      </c>
-      <c r="B60" s="79"/>
+      <c r="A60" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="80"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B61" s="24" t="e">
         <f ca="1">SUM(INDIRECT("MODEL!"&amp;E13&amp;"4:"&amp;E13&amp;$E$2))+INPUTS!C31</f>
@@ -38294,7 +38294,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B62" s="24" t="e">
         <f ca="1">SUM(INDIRECT("MODEL!"&amp;E14&amp;"4:"&amp;E14&amp;$E$2))+INPUTS!D31</f>
@@ -38303,7 +38303,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B63" s="24" t="e">
         <f ca="1">SUM(INDIRECT("MODEL!"&amp;E15&amp;"4:"&amp;E15&amp;$E$2))+INPUTS!E31</f>
@@ -38312,7 +38312,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B64" s="24" t="e">
         <f ca="1">SUM(INDIRECT("MODEL!"&amp;E16&amp;"4:"&amp;E16&amp;$E$2))+INPUTS!B31</f>
@@ -38321,7 +38321,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B65" s="24" t="e">
         <f ca="1">SUM(B61:B64)</f>
@@ -38330,7 +38330,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B66" s="17" t="e">
         <f ca="1">ROUND(B67/B65,0)</f>
@@ -38339,7 +38339,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B67" s="24" t="e">
         <f ca="1">B15*(B8*12)</f>
@@ -38351,14 +38351,14 @@
       <c r="B68" s="24"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="B69" s="81"/>
+      <c r="A69" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" s="82"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B70" s="24" t="e">
         <f ca="1">B65+B56</f>
@@ -38367,7 +38367,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B71" s="17" t="e">
         <f ca="1">ROUND(B72/B70,0)</f>
@@ -38376,7 +38376,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B72" s="26" t="e">
         <f ca="1">B67+B58</f>
@@ -38403,26 +38403,26 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
